--- a/BusinessPlanExcel.xlsx
+++ b/BusinessPlanExcel.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="profit&amp;loss" sheetId="1" r:id="rId1"/>
+    <sheet name="profit" sheetId="1" r:id="rId1"/>
     <sheet name="team" sheetId="2" r:id="rId2"/>
     <sheet name="techsupport" sheetId="3" r:id="rId3"/>
-    <sheet name="basis for profit graphs" sheetId="4" r:id="rId4"/>
+    <sheet name="revenue&amp;graphs" sheetId="4" r:id="rId4"/>
     <sheet name="comission plan" sheetId="5" r:id="rId5"/>
+    <sheet name="investors" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>Profit</t>
   </si>
@@ -229,13 +230,133 @@
   </si>
   <si>
     <t>usd</t>
+  </si>
+  <si>
+    <t>%of potcust</t>
+  </si>
+  <si>
+    <t>Potent cust</t>
+  </si>
+  <si>
+    <t>Revenue PP</t>
+  </si>
+  <si>
+    <t>annual rev PP</t>
+  </si>
+  <si>
+    <t>Annual Total Revenue</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Potential Customers</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>1 year 2Q</t>
+  </si>
+  <si>
+    <t>1 year 3Q</t>
+  </si>
+  <si>
+    <t>1 year 4Q</t>
+  </si>
+  <si>
+    <t>2 year 2Q</t>
+  </si>
+  <si>
+    <t>2 year 3Q</t>
+  </si>
+  <si>
+    <t>2 year 4Q</t>
+  </si>
+  <si>
+    <t>3 year 2Q</t>
+  </si>
+  <si>
+    <t>3 year 3Q</t>
+  </si>
+  <si>
+    <t>3 year 4Q</t>
+  </si>
+  <si>
+    <t>% of current customers</t>
+  </si>
+  <si>
+    <t>Number of current customers</t>
+  </si>
+  <si>
+    <t>Avarege comission per purchise</t>
+  </si>
+  <si>
+    <t>Revenue from Current customers</t>
+  </si>
+  <si>
+    <t>Annual total revenue in USD</t>
+  </si>
+  <si>
+    <t>% of potential customers</t>
+  </si>
+  <si>
+    <t>Number of potential customers</t>
+  </si>
+  <si>
+    <t>Revenue from Potential customers</t>
+  </si>
+  <si>
+    <t>Table 1. Revenue per progect in 3 years period of time</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 YEAR</t>
+  </si>
+  <si>
+    <t>AAGR</t>
+  </si>
+  <si>
+    <t>[Growth rate = (Ending Value - Beginning Value) / Beginning Value]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual revenue </t>
+  </si>
+  <si>
+    <t>Number og Grupon subscribers (quaterly)</t>
+  </si>
+  <si>
+    <t>142.87 m</t>
+  </si>
+  <si>
+    <t>3119.52 m</t>
+  </si>
+  <si>
+    <t>Global Revenue of Groupon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +412,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -318,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -326,11 +453,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -374,6 +555,23 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,6 +589,4685 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of current customers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$T$5:$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3 year 4Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revenue&amp;graphs'!$T$7:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>315076.92307692306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945230.76923076925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1575384.6153846155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2205538.461538462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3465846.1538461545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4726153.8461538469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5986461.5384615399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9137230.7692307699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12288000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15438769.23076923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18589538.46153846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21740307.692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39AF-4AC5-9F78-8C8C93F1F675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="408969176"/>
+        <c:axId val="408967536"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'revenue&amp;graphs'!$S$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% of current customers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'revenue&amp;graphs'!$T$5:$AE$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1 year 1Q</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1 year 2Q</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1 year 3Q</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1 year 4Q</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2 year 1Q</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2 year 2Q</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2 year 3Q</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2 year 4Q</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3 year 1Q</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3 year 2Q</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3 year 3Q</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3 year 4Q</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'revenue&amp;graphs'!$T$6:$AE$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.03</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.11000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.15000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.19000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.29000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.59</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-39AF-4AC5-9F78-8C8C93F1F675}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="408969176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408967536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408967536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408969176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue from Current customers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$T$5:$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3 year 4Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revenue&amp;graphs'!$T$9:$AE$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>614400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024000.0000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1433600.0000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2252800.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072000.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3891200.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5939200.0000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7987200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10035200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12083200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14131200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09C9-4B90-ADEE-571462810A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="402960968"/>
+        <c:axId val="402959328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402960968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402959328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402959328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402960968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue from Potential customers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$T$5:$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3 year 4Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revenue&amp;graphs'!$T$13:$AE$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>57520</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86280.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115040.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143800.00000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258840</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>373880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>488920.00000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>603960.00000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891560.00000000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1179160.0000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1466760.0000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1754360.0000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51F9-4B50-A16F-6CA11207665B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="374828520"/>
+        <c:axId val="374828848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="374828520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374828848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374828848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374828520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$AH$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Annual revenue </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$AG$7:$AG$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v> 1 YEAR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 2 YEAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 3 YEAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revenue&amp;graphs'!$AH$7:$AH$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3679440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16880800.000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49528640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-274F-4DE3-89E1-383BFB4885F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="387687384"/>
+        <c:axId val="387685744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387687384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387685744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387685744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387687384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of potential customers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'revenue&amp;graphs'!$T$5:$AE$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 year 4Q</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3 year 1Q</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3 year 2Q</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3 year 3Q</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3 year 4Q</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revenue&amp;graphs'!$T$11:$AE$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>884923.07692307699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1327384.6153846155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1769846.153846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2212307.6923076925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3982153.846153846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5752000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7521846.1538461549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9291692.3076923098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13716307.692307696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18140923.07692308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22565538.461538464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26990153.846153848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD53-465D-8CA8-784AA303CC8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="384723200"/>
+        <c:axId val="384725168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="384723200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384725168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="384725168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384723200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -404,7 +5281,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -459,7 +5336,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>173710</xdr:rowOff>
+      <xdr:rowOff>145135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -507,13 +5384,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -556,6 +5433,156 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -860,11 +5887,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:J3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -886,20 +5918,238 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="F7" s="17">
+        <v>750000</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17">
+        <v>750000</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="17">
+        <f>'revenue&amp;graphs'!V59</f>
+        <v>3679440</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
+        <f>'revenue&amp;graphs'!Z59</f>
+        <v>16880800.000000004</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17">
+        <f>'revenue&amp;graphs'!AD59</f>
+        <v>49528640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,27 +6171,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C2">
         <v>2.99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -952,10 +6202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AD45"/>
+  <dimension ref="B2:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M34" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,340 +6214,1179 @@
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="14" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="11:34" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="S27">
+    <row r="4" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S4" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S5" s="20"/>
+      <c r="T5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE5" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="29">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D28">
+      <c r="U6" s="29">
+        <f>T6+0.02</f>
+        <v>0.03</v>
+      </c>
+      <c r="V6" s="29">
+        <f>U6+$T$40</f>
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="29">
+        <f>V6+$T$40</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X6" s="29">
+        <f>W6+$W$40</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y6" s="29">
+        <f>X6+$W$40</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Z6" s="29">
+        <f t="shared" ref="Z6" si="0">Y6+$W$40</f>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="AA6" s="29">
+        <f t="shared" ref="AA6" si="1">Z6+0.1</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AB6" s="29">
+        <f t="shared" ref="AB6" si="2">AA6+0.1</f>
+        <v>0.39</v>
+      </c>
+      <c r="AC6" s="29">
+        <f t="shared" ref="AC6" si="3">AB6+0.1</f>
+        <v>0.49</v>
+      </c>
+      <c r="AD6" s="29">
+        <f t="shared" ref="AD6" si="4">AC6+0.1</f>
+        <v>0.59</v>
+      </c>
+      <c r="AE6" s="29">
+        <f t="shared" ref="AE6" si="5">AD6+0.1</f>
+        <v>0.69</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S7" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="22">
+        <f>$N$45*T6</f>
+        <v>315076.92307692306</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" ref="U7:AE7" si="6">$N$45*U6</f>
+        <v>945230.76923076925</v>
+      </c>
+      <c r="V7" s="22">
+        <f t="shared" si="6"/>
+        <v>1575384.6153846155</v>
+      </c>
+      <c r="W7" s="22">
+        <f t="shared" si="6"/>
+        <v>2205538.461538462</v>
+      </c>
+      <c r="X7" s="22">
+        <f t="shared" si="6"/>
+        <v>3465846.1538461545</v>
+      </c>
+      <c r="Y7" s="22">
+        <f t="shared" si="6"/>
+        <v>4726153.8461538469</v>
+      </c>
+      <c r="Z7" s="22">
+        <f t="shared" si="6"/>
+        <v>5986461.5384615399</v>
+      </c>
+      <c r="AA7" s="22">
+        <f t="shared" si="6"/>
+        <v>9137230.7692307699</v>
+      </c>
+      <c r="AB7" s="22">
+        <f t="shared" si="6"/>
+        <v>12288000</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" si="6"/>
+        <v>15438769.23076923</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" si="6"/>
+        <v>18589538.46153846</v>
+      </c>
+      <c r="AE7" s="22">
+        <f t="shared" si="6"/>
+        <v>21740307.692307692</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH7" s="17">
+        <f>W14</f>
+        <v>3679440</v>
+      </c>
+    </row>
+    <row r="8" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="20">
+        <f>P49</f>
+        <v>0.65</v>
+      </c>
+      <c r="U8" s="20">
+        <f>T8</f>
+        <v>0.65</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" ref="V8:AE8" si="7">U8</f>
+        <v>0.65</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="Z8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AB8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AC8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AE8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.65</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>AA14</f>
+        <v>16880800.000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="23">
+        <f>T8*T7</f>
+        <v>204800</v>
+      </c>
+      <c r="U9" s="23">
+        <f t="shared" ref="U9:AE9" si="8">U8*U7</f>
+        <v>614400</v>
+      </c>
+      <c r="V9" s="23">
+        <f t="shared" si="8"/>
+        <v>1024000.0000000001</v>
+      </c>
+      <c r="W9" s="23">
+        <f t="shared" si="8"/>
+        <v>1433600.0000000002</v>
+      </c>
+      <c r="X9" s="23">
+        <f t="shared" si="8"/>
+        <v>2252800.0000000005</v>
+      </c>
+      <c r="Y9" s="23">
+        <f t="shared" si="8"/>
+        <v>3072000.0000000005</v>
+      </c>
+      <c r="Z9" s="23">
+        <f t="shared" si="8"/>
+        <v>3891200.0000000009</v>
+      </c>
+      <c r="AA9" s="23">
+        <f t="shared" si="8"/>
+        <v>5939200.0000000009</v>
+      </c>
+      <c r="AB9" s="23">
+        <f t="shared" si="8"/>
+        <v>7987200</v>
+      </c>
+      <c r="AC9" s="23">
+        <f t="shared" si="8"/>
+        <v>10035200</v>
+      </c>
+      <c r="AD9" s="23">
+        <f t="shared" si="8"/>
+        <v>12083200</v>
+      </c>
+      <c r="AE9" s="23">
+        <f t="shared" si="8"/>
+        <v>14131200</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH9" s="17">
+        <f>AE14</f>
+        <v>49528640</v>
+      </c>
+    </row>
+    <row r="10" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="U10" s="29">
+        <f>T10+$T$50</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V10" s="29">
+        <f t="shared" ref="V10" si="9">U10+$T$50</f>
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="29">
+        <f t="shared" ref="W10" si="10">V10+$T$50</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X10" s="29">
+        <f>W10+$W$50</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y10" s="29">
+        <f>X10+$W$50</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z10" s="29">
+        <f t="shared" ref="Z10" si="11">Y10+$W$50</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AA10" s="29">
+        <f t="shared" ref="AA10" si="12">Z10+$W$50</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="AB10" s="29">
+        <f>AA10+$AA$50</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="AC10" s="29">
+        <f t="shared" ref="AC10:AE10" si="13">AB10+$AA$50</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="AD10" s="29">
+        <f t="shared" si="13"/>
+        <v>0.255</v>
+      </c>
+      <c r="AE10" s="29">
+        <f t="shared" si="13"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AH10" s="17">
+        <f>SUM(AH7:AH9)</f>
+        <v>70088880</v>
+      </c>
+    </row>
+    <row r="11" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="22">
+        <f>$P$54*T10</f>
+        <v>884923.07692307699</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" ref="U11:AE11" si="14">$P$54*U10</f>
+        <v>1327384.6153846155</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" si="14"/>
+        <v>1769846.153846154</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" si="14"/>
+        <v>2212307.6923076925</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" si="14"/>
+        <v>3982153.846153846</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="14"/>
+        <v>5752000</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="14"/>
+        <v>7521846.1538461549</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="14"/>
+        <v>9291692.3076923098</v>
+      </c>
+      <c r="AB11" s="22">
+        <f t="shared" si="14"/>
+        <v>13716307.692307696</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="14"/>
+        <v>18140923.07692308</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="14"/>
+        <v>22565538.461538464</v>
+      </c>
+      <c r="AE11" s="22">
+        <f t="shared" si="14"/>
+        <v>26990153.846153848</v>
+      </c>
+      <c r="AH11" s="17"/>
+    </row>
+    <row r="12" spans="11:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="23">
+        <f>T8*0.1</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" ref="U12:AE12" si="15">U8*0.1</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AC12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AE12" s="23">
+        <f t="shared" si="15"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG12" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="S13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="23">
+        <v>57520</v>
+      </c>
+      <c r="U13" s="23">
+        <v>86280.000000000015</v>
+      </c>
+      <c r="V13" s="23">
+        <v>115040.00000000001</v>
+      </c>
+      <c r="W13" s="23">
+        <v>143800.00000000003</v>
+      </c>
+      <c r="X13" s="23">
+        <v>258840</v>
+      </c>
+      <c r="Y13" s="23">
+        <v>373880</v>
+      </c>
+      <c r="Z13" s="23">
+        <v>488920.00000000006</v>
+      </c>
+      <c r="AA13" s="23">
+        <v>603960.00000000012</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>891560.00000000023</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>1179160.0000000002</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>1466760.0000000002</v>
+      </c>
+      <c r="AE13" s="23">
+        <v>1754360.0000000002</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH13">
+        <f>((AH8-AH7)/AH7+(AH9-AH8)/AH8)/2</f>
+        <v>2.7609470758749706</v>
+      </c>
+    </row>
+    <row r="14" spans="11:34" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26">
+        <f>SUM(T9:W9,T13:W13)</f>
+        <v>3679440</v>
+      </c>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28">
+        <f>SUM(X9:AA9,X13:AA13)</f>
+        <v>16880800.000000004</v>
+      </c>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="28">
+        <f>SUM(AB9:AE9,AB13:AE13)</f>
+        <v>49528640</v>
+      </c>
+    </row>
+    <row r="15" spans="11:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D32">
         <v>48000000</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N32" s="16">
         <v>120000000</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
+    <row r="34" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
         <v>44</v>
       </c>
-      <c r="K30">
-        <f>D28/N28</f>
+      <c r="K34">
+        <f>D32/N32</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="K32">
-        <f>N28*K30</f>
+    <row r="36" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f>N32*K34</f>
         <v>48000000</v>
       </c>
     </row>
-    <row r="35" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="L35" t="s">
+    <row r="39" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="L36">
+    <row r="40" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="L40">
         <v>3120000000</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S40" t="s">
         <v>58</v>
       </c>
-      <c r="T36">
+      <c r="T40">
         <v>0.02</v>
       </c>
-      <c r="W36">
+      <c r="W40">
         <v>0.04</v>
       </c>
-      <c r="AA36">
+      <c r="AA40">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="L37" s="16">
+    <row r="41" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="L41" s="16">
         <v>2048000000</v>
       </c>
     </row>
-    <row r="38" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="S38" t="s">
+    <row r="42" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
         <v>52</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T42" t="s">
         <v>53</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U42" t="s">
         <v>54</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V42" t="s">
         <v>55</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W42" t="s">
         <v>56</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X42" t="s">
         <v>53</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y42" t="s">
         <v>54</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Z42" t="s">
         <v>55</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AA42" t="s">
         <v>57</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AB42" t="s">
         <v>53</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC42" t="s">
         <v>54</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
+    <row r="43" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
         <v>45</v>
       </c>
-      <c r="M39">
-        <f>L37/L36</f>
+      <c r="M43">
+        <f>L41/L40</f>
         <v>0.65641025641025641</v>
       </c>
     </row>
-    <row r="40" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="O40" t="s">
+    <row r="44" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
         <v>49</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R44" t="s">
         <v>60</v>
       </c>
-      <c r="S40">
+      <c r="S44">
         <v>0.01</v>
       </c>
-      <c r="T40">
-        <f>S40+0.02</f>
+      <c r="T44">
+        <f>S44+0.02</f>
         <v>0.03</v>
       </c>
-      <c r="U40">
-        <f>T40+$T$36</f>
+      <c r="U44">
+        <f>T44+$T$40</f>
         <v>0.05</v>
       </c>
-      <c r="V40">
-        <f>U40+$T$36</f>
+      <c r="V44">
+        <f>U44+$T$40</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W40">
-        <f>V40+$W$36</f>
+      <c r="W44">
+        <f>V44+$W$40</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="X40">
-        <f t="shared" ref="X40:Y40" si="0">W40+$W$36</f>
+      <c r="X44">
+        <f>W44+$W$40</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="Y40">
-        <f t="shared" si="0"/>
+      <c r="Y44">
+        <f t="shared" ref="Y44" si="16">X44+$W$40</f>
         <v>0.19000000000000003</v>
       </c>
-      <c r="Z40">
-        <f t="shared" ref="Z40:AD40" si="1">Y40+0.1</f>
+      <c r="Z44">
+        <f t="shared" ref="Z44:AD44" si="17">Y44+0.1</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="1"/>
+      <c r="AA44">
+        <f t="shared" si="17"/>
         <v>0.39</v>
       </c>
-      <c r="AB40">
-        <f t="shared" si="1"/>
+      <c r="AB44">
+        <f t="shared" si="17"/>
         <v>0.49</v>
       </c>
-      <c r="AC40">
-        <f t="shared" si="1"/>
+      <c r="AC44">
+        <f t="shared" si="17"/>
         <v>0.59</v>
       </c>
-      <c r="AD40">
-        <f t="shared" si="1"/>
+      <c r="AD44">
+        <f t="shared" si="17"/>
         <v>0.69</v>
       </c>
     </row>
-    <row r="41" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="L41" t="s">
+    <row r="45" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
         <v>46</v>
       </c>
-      <c r="N41" s="16">
-        <f>K32*M39</f>
+      <c r="N45" s="16">
+        <f>K36*M43</f>
         <v>31507692.307692308</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O45" t="s">
         <v>51</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R45" t="s">
         <v>59</v>
       </c>
-      <c r="S41">
-        <f>$N$41*S40</f>
+      <c r="S45">
+        <f>$N$45*S44</f>
         <v>315076.92307692306</v>
       </c>
-      <c r="T41">
-        <f t="shared" ref="T41:AD41" si="2">$N$41*T40</f>
+      <c r="T45">
+        <f t="shared" ref="T45:AD45" si="18">$N$45*T44</f>
         <v>945230.76923076925</v>
       </c>
-      <c r="U41">
-        <f t="shared" si="2"/>
+      <c r="U45">
+        <f t="shared" si="18"/>
         <v>1575384.6153846155</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="2"/>
+      <c r="V45">
+        <f t="shared" si="18"/>
         <v>2205538.461538462</v>
       </c>
-      <c r="W41">
-        <f t="shared" si="2"/>
+      <c r="W45">
+        <f t="shared" si="18"/>
         <v>3465846.1538461545</v>
       </c>
-      <c r="X41">
-        <f t="shared" si="2"/>
+      <c r="X45">
+        <f t="shared" si="18"/>
         <v>4726153.8461538469</v>
       </c>
-      <c r="Y41">
-        <f t="shared" si="2"/>
+      <c r="Y45">
+        <f t="shared" si="18"/>
         <v>5986461.5384615399</v>
       </c>
-      <c r="Z41">
-        <f t="shared" si="2"/>
+      <c r="Z45">
+        <f t="shared" si="18"/>
         <v>9137230.7692307699</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="2"/>
+      <c r="AA45">
+        <f t="shared" si="18"/>
         <v>12288000</v>
       </c>
-      <c r="AB41">
-        <f t="shared" si="2"/>
+      <c r="AB45">
+        <f t="shared" si="18"/>
         <v>15438769.23076923</v>
       </c>
-      <c r="AC41">
-        <f t="shared" si="2"/>
+      <c r="AC45">
+        <f t="shared" si="18"/>
         <v>18589538.46153846</v>
       </c>
-      <c r="AD41">
-        <f t="shared" si="2"/>
+      <c r="AD45">
+        <f t="shared" si="18"/>
         <v>21740307.692307692</v>
       </c>
     </row>
-    <row r="42" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="O42" t="s">
+    <row r="46" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
         <v>47</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R46" t="s">
         <v>61</v>
       </c>
-      <c r="S42">
-        <f>S41*$P$45</f>
+      <c r="S46">
+        <f>S45*$P$49</f>
         <v>204800</v>
       </c>
-      <c r="T42">
-        <f t="shared" ref="T42:AD42" si="3">T41*$P$45</f>
+      <c r="T46">
+        <f t="shared" ref="T46:AC46" si="19">T45*$P$49</f>
         <v>614400</v>
       </c>
-      <c r="U42">
-        <f t="shared" si="3"/>
+      <c r="U46">
+        <f t="shared" si="19"/>
         <v>1024000.0000000001</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="3"/>
+      <c r="V46">
+        <f t="shared" si="19"/>
         <v>1433600.0000000002</v>
       </c>
-      <c r="W42">
-        <f t="shared" si="3"/>
+      <c r="W46">
+        <f t="shared" si="19"/>
         <v>2252800.0000000005</v>
       </c>
-      <c r="X42">
-        <f t="shared" si="3"/>
+      <c r="X46">
+        <f t="shared" si="19"/>
         <v>3072000.0000000005</v>
       </c>
-      <c r="Y42">
-        <f t="shared" si="3"/>
+      <c r="Y46">
+        <f t="shared" si="19"/>
         <v>3891200.0000000009</v>
       </c>
-      <c r="Z42">
-        <f t="shared" si="3"/>
+      <c r="Z46">
+        <f t="shared" si="19"/>
         <v>5939200.0000000009</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="3"/>
+      <c r="AA46">
+        <f t="shared" si="19"/>
         <v>7987200</v>
       </c>
-      <c r="AB42">
-        <f t="shared" si="3"/>
+      <c r="AB46">
+        <f t="shared" si="19"/>
         <v>10035200</v>
       </c>
-      <c r="AC42">
-        <f t="shared" si="3"/>
+      <c r="AC46">
+        <f t="shared" si="19"/>
         <v>12083200</v>
       </c>
-      <c r="AD42">
-        <f>AD41*$P$45</f>
+      <c r="AD46">
+        <f>AD45*$P$49</f>
         <v>14131200</v>
       </c>
     </row>
-    <row r="43" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="O43">
-        <f>L37/N41</f>
+    <row r="47" spans="9:30" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <f>L41/N45</f>
         <v>65</v>
       </c>
-      <c r="P43">
-        <f>O43*0.5*0.6*0.25*0.4</f>
+      <c r="P47">
+        <f>O47*0.5*0.6*0.25*0.4</f>
         <v>1.9500000000000002</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="V43" s="14">
-        <f>S42+T42+U42+V42</f>
+      <c r="V47" s="14">
+        <f>S46+T46+U46+V46</f>
         <v>3276800</v>
       </c>
-      <c r="Z43" s="14">
-        <f>W42+X42+Y42+Z42</f>
+      <c r="Z47" s="14">
+        <f>W46+X46+Y46+Z46</f>
         <v>15155200.000000004</v>
       </c>
-      <c r="AD43" s="14">
-        <f>AA42+AB42+AC42+AD42</f>
+      <c r="AD47" s="14">
+        <f>AA46+AB46+AC46+AD46</f>
         <v>44236800</v>
       </c>
     </row>
-    <row r="45" spans="11:30" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
+    <row r="49" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="16">
-        <f>P43/12*4</f>
+      <c r="P49" s="16">
+        <f>P47/12*4</f>
         <v>0.65</v>
       </c>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+    </row>
+    <row r="50" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W50">
+        <v>0.02</v>
+      </c>
+      <c r="AA50">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+    </row>
+    <row r="52" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" t="s">
+        <v>52</v>
+      </c>
+      <c r="T52" t="s">
+        <v>53</v>
+      </c>
+      <c r="U52" t="s">
+        <v>54</v>
+      </c>
+      <c r="V52" t="s">
+        <v>55</v>
+      </c>
+      <c r="W52" t="s">
+        <v>56</v>
+      </c>
+      <c r="X52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+    </row>
+    <row r="54" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54">
+        <f>N32-N45</f>
+        <v>88492307.692307696</v>
+      </c>
+      <c r="R54" t="s">
+        <v>67</v>
+      </c>
+      <c r="S54">
+        <v>0.01</v>
+      </c>
+      <c r="T54">
+        <f>S54+$T$50</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ref="U54:V54" si="20">T54+$T$50</f>
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="20"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W54">
+        <f>V54+$W$50</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X54">
+        <f>W54+$W$50</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" ref="Y54:Z54" si="21">X54+$W$50</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="21"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="AA54">
+        <f>Z54+$AA$50</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" ref="AB54:AD54" si="22">AA54+$AA$50</f>
+        <v>0.20500000000000002</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="22"/>
+        <v>0.255</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="22"/>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <f>P49*0.1</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R55" t="s">
+        <v>68</v>
+      </c>
+      <c r="S55">
+        <f>$P$54*S54</f>
+        <v>884923.07692307699</v>
+      </c>
+      <c r="T55">
+        <f t="shared" ref="T55:AD55" si="23">$P$54*T54</f>
+        <v>1327384.6153846155</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="23"/>
+        <v>1769846.153846154</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="23"/>
+        <v>2212307.6923076925</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="23"/>
+        <v>3982153.846153846</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="23"/>
+        <v>5752000</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="23"/>
+        <v>7521846.1538461549</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="23"/>
+        <v>9291692.3076923098</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="23"/>
+        <v>13716307.692307696</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="23"/>
+        <v>18140923.07692308</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="23"/>
+        <v>22565538.461538464</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="23"/>
+        <v>26990153.846153848</v>
+      </c>
+    </row>
+    <row r="56" spans="12:30" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>69</v>
+      </c>
+      <c r="S56">
+        <f>S55*$P$55</f>
+        <v>57520.000000000007</v>
+      </c>
+      <c r="T56">
+        <f t="shared" ref="T56:AD56" si="24">T55*$P$55</f>
+        <v>86280.000000000015</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="24"/>
+        <v>115040.00000000001</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="24"/>
+        <v>143800.00000000003</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="24"/>
+        <v>258840</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="24"/>
+        <v>373880</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="24"/>
+        <v>488920.00000000006</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="24"/>
+        <v>603960.00000000012</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="24"/>
+        <v>891560.00000000023</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="24"/>
+        <v>1179160.0000000002</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="24"/>
+        <v>1466760.0000000002</v>
+      </c>
+      <c r="AD56">
+        <f>AD55*$P$55</f>
+        <v>1754360.0000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V57" s="14">
+        <f>S56+T56+U56+V56</f>
+        <v>402640.00000000012</v>
+      </c>
+      <c r="Z57" s="14">
+        <f>SUM(W56:Z56)</f>
+        <v>1725600</v>
+      </c>
+      <c r="AD57" s="14">
+        <f>SUM(AA56:AD56)</f>
+        <v>5291840.0000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V59" s="18">
+        <f>SUM(V47,V57)</f>
+        <v>3679440</v>
+      </c>
+      <c r="Z59" s="18">
+        <f>SUM(Z47,Z57)</f>
+        <v>16880800.000000004</v>
+      </c>
+      <c r="AD59" s="18">
+        <f>SUM(AD47,AD57)</f>
+        <v>49528640</v>
+      </c>
+    </row>
+    <row r="61" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N61" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P61" s="18">
+        <v>750000</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="V61" s="19">
+        <f>V59/P61</f>
+        <v>4.9059200000000001</v>
+      </c>
+      <c r="Z61" s="19">
+        <f>Z59/P61</f>
+        <v>22.507733333333338</v>
+      </c>
+      <c r="AD61" s="19">
+        <f>AD59/P61</f>
+        <v>66.038186666666661</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +7397,7 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +7405,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +7419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +7433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1358,7 +7447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1372,7 +7461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1386,7 +7475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1400,7 +7489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1413,8 +7502,12 @@
       <c r="D8" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>5*0.6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1427,8 +7520,12 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>2*0.4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1441,8 +7538,12 @@
       <c r="D10" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>SUM(H8:H9)</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +7557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +7571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +7585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1498,7 +7599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +7613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +7683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +7711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +7725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
@@ -1638,7 +7739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -1652,7 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
@@ -1666,7 +7767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +7781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +7795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
@@ -1708,7 +7809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -1722,7 +7823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
@@ -1736,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
@@ -1750,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
@@ -1764,7 +7865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
@@ -1778,7 +7879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>42</v>
       </c>
@@ -1807,4 +7908,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BusinessPlanExcel.xlsx
+++ b/BusinessPlanExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="profit" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Profit</t>
   </si>
@@ -308,18 +308,6 @@
   </si>
   <si>
     <t>Table 1. Revenue per progect in 3 years period of time</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t xml:space="preserve"> 1 YEAR</t>
@@ -6204,7 +6192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH67"/>
   <sheetViews>
-    <sheetView topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
@@ -6325,7 +6313,7 @@
         <v>0.69</v>
       </c>
       <c r="AH6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="11:34" x14ac:dyDescent="0.25">
@@ -6381,7 +6369,7 @@
         <v>21740307.692307692</v>
       </c>
       <c r="AG7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AH7" s="17">
         <f>W14</f>
@@ -6441,7 +6429,7 @@
         <v>0.65</v>
       </c>
       <c r="AG8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AH8" s="17">
         <f>AA14</f>
@@ -6501,7 +6489,7 @@
         <v>14131200</v>
       </c>
       <c r="AG9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AH9" s="17">
         <f>AE14</f>
@@ -6671,7 +6659,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="11:34" x14ac:dyDescent="0.25">
@@ -6715,7 +6703,7 @@
         <v>1754360.0000000002</v>
       </c>
       <c r="AG13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AH13">
         <f>((AH8-AH7)/AH7+(AH9-AH8)/AH8)/2</f>
@@ -7257,7 +7245,7 @@
         <v>57520.000000000007</v>
       </c>
       <c r="T56">
-        <f t="shared" ref="T56:AD56" si="24">T55*$P$55</f>
+        <f t="shared" ref="T56:AC56" si="24">T55*$P$55</f>
         <v>86280.000000000015</v>
       </c>
       <c r="U56">
@@ -7360,18 +7348,18 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7385,7 +7373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -7507,7 +7495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -7525,7 +7513,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -7557,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -7599,7 +7587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>

--- a/BusinessPlanExcel.xlsx
+++ b/BusinessPlanExcel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\GIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksim.superfin\Documents\GIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="profit" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="comission plan" sheetId="5" r:id="rId5"/>
     <sheet name="investors" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Expensies</t>
-  </si>
-  <si>
     <t>Investments</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Ratio of north america</t>
   </si>
   <si>
-    <t>Customers in north america</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
     <t>Number of current customers</t>
   </si>
   <si>
-    <t>Avarege comission per purchise</t>
-  </si>
-  <si>
     <t>Revenue from Current customers</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
     <t>Revenue from Potential customers</t>
   </si>
   <si>
-    <t>Table 1. Revenue per progect in 3 years period of time</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 YEAR</t>
   </si>
   <si>
@@ -328,9 +316,6 @@
     <t xml:space="preserve">Annual revenue </t>
   </si>
   <si>
-    <t>Number og Grupon subscribers (quaterly)</t>
-  </si>
-  <si>
     <t>142.87 m</t>
   </si>
   <si>
@@ -338,13 +323,28 @@
   </si>
   <si>
     <t>Global Revenue of Groupon</t>
+  </si>
+  <si>
+    <t>Table 1. Revenue per project in 3 years period of time</t>
+  </si>
+  <si>
+    <t>Avarege comission per purchase</t>
+  </si>
+  <si>
+    <t>Customers in North America</t>
+  </si>
+  <si>
+    <t>Number of Grupon subscribers (quaterly)</t>
+  </si>
+  <si>
+    <t>Expenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +405,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -499,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -560,6 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +586,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -592,6 +600,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -770,7 +779,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39AF-4AC5-9F78-8C8C93F1F675}"/>
             </c:ext>
@@ -786,9 +795,9 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="408969176"/>
-        <c:axId val="408967536"/>
-        <c:extLst>
+        <c:axId val="283290760"/>
+        <c:axId val="283292720"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -796,7 +805,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$S$6</c15:sqref>
@@ -852,7 +861,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$T$5:$AE$5</c15:sqref>
@@ -902,7 +911,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$T$6:$AE$6</c15:sqref>
@@ -951,7 +960,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-39AF-4AC5-9F78-8C8C93F1F675}"/>
                   </c:ext>
@@ -962,7 +971,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408969176"/>
+        <c:axId val="283290760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408967536"/>
+        <c:crossAx val="283292720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1013,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408967536"/>
+        <c:axId val="283292720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408969176"/>
+        <c:crossAx val="283290760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,6 +1087,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1145,7 +1155,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1159,6 +1169,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,7 +1348,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-09C9-4B90-ADEE-571462810A8F}"/>
             </c:ext>
@@ -1353,11 +1364,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="402960968"/>
-        <c:axId val="402959328"/>
+        <c:axId val="283293896"/>
+        <c:axId val="283295072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="402960968"/>
+        <c:axId val="283293896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402959328"/>
+        <c:crossAx val="283295072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402959328"/>
+        <c:axId val="283295072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402960968"/>
+        <c:crossAx val="283293896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,7 +1520,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1523,6 +1534,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1701,7 +1713,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51F9-4B50-A16F-6CA11207665B}"/>
             </c:ext>
@@ -1717,11 +1729,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="374828520"/>
-        <c:axId val="374828848"/>
+        <c:axId val="283296248"/>
+        <c:axId val="283288800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="374828520"/>
+        <c:axId val="283296248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374828848"/>
+        <c:crossAx val="283288800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1772,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374828848"/>
+        <c:axId val="283288800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374828520"/>
+        <c:crossAx val="283296248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1873,7 +1885,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1887,6 +1899,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,7 +2024,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274F-4DE3-89E1-383BFB4885F7}"/>
             </c:ext>
@@ -2027,11 +2040,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="387687384"/>
-        <c:axId val="387685744"/>
+        <c:axId val="283293112"/>
+        <c:axId val="283291544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387687384"/>
+        <c:axId val="283293112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387685744"/>
+        <c:crossAx val="283291544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2082,7 +2095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387685744"/>
+        <c:axId val="283291544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387687384"/>
+        <c:crossAx val="283293112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2183,7 +2196,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2197,6 +2210,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2228,7 +2242,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14992871809417482"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.80286749092105236"/>
+          <c:h val="0.65873468941382329"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2375,7 +2399,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CD53-465D-8CA8-784AA303CC8B}"/>
             </c:ext>
@@ -2391,11 +2415,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="384723200"/>
-        <c:axId val="384725168"/>
+        <c:axId val="283292328"/>
+        <c:axId val="283293504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384723200"/>
+        <c:axId val="283292328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384725168"/>
+        <c:crossAx val="283293504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2446,7 +2470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384725168"/>
+        <c:axId val="283293504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384723200"/>
+        <c:crossAx val="283292328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5456,15 +5480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:colOff>143435</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>178174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>105335</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>63874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5545,16 +5569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>709333</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>45384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>128307</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5875,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,20 +5921,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>4</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32">
         <v>750000</v>
       </c>
       <c r="G7" s="17"/>
@@ -5954,7 +5978,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="17">
         <f>'revenue&amp;graphs'!V59</f>
@@ -6027,7 +6051,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -6149,7 +6173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -6169,18 +6193,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>2.99</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6192,8 +6216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB57" sqref="AB57"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,56 +6238,56 @@
   <sheetData>
     <row r="2" spans="11:34" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S4" s="14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S5" s="20"/>
       <c r="T5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="X5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="Z5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AB5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AD5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE5" s="21" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S6" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T6" s="29">
         <v>0.01</v>
@@ -6313,12 +6337,12 @@
         <v>0.69</v>
       </c>
       <c r="AH6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S7" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T7" s="22">
         <f>$N$45*T6</f>
@@ -6369,7 +6393,7 @@
         <v>21740307.692307692</v>
       </c>
       <c r="AG7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AH7" s="17">
         <f>W14</f>
@@ -6378,7 +6402,7 @@
     </row>
     <row r="8" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S8" s="20" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="T8" s="20">
         <f>P49</f>
@@ -6429,7 +6453,7 @@
         <v>0.65</v>
       </c>
       <c r="AG8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AH8" s="17">
         <f>AA14</f>
@@ -6438,7 +6462,7 @@
     </row>
     <row r="9" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S9" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T9" s="23">
         <f>T8*T7</f>
@@ -6489,7 +6513,7 @@
         <v>14131200</v>
       </c>
       <c r="AG9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AH9" s="17">
         <f>AE14</f>
@@ -6498,7 +6522,7 @@
     </row>
     <row r="10" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S10" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="T10" s="29">
         <v>0.01</v>
@@ -6554,7 +6578,7 @@
     </row>
     <row r="11" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S11" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T11" s="22">
         <f>$P$54*T10</f>
@@ -6608,7 +6632,7 @@
     </row>
     <row r="12" spans="11:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S12" s="20" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="T12" s="23">
         <f>T8*0.1</f>
@@ -6659,12 +6683,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG12" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S13" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T13" s="23">
         <v>57520</v>
@@ -6703,7 +6727,7 @@
         <v>1754360.0000000002</v>
       </c>
       <c r="AG13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AH13">
         <f>((AH8-AH7)/AH7+(AH9-AH8)/AH8)/2</f>
@@ -6712,7 +6736,7 @@
     </row>
     <row r="14" spans="11:34" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S14" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
@@ -6750,12 +6774,12 @@
         <v>120000000</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="9:30" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <f>D32/N32</f>
@@ -6770,7 +6794,7 @@
     </row>
     <row r="39" spans="9:30" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="9:30" x14ac:dyDescent="0.25">
@@ -6778,7 +6802,7 @@
         <v>3120000000</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T40">
         <v>0.02</v>
@@ -6797,45 +6821,45 @@
     </row>
     <row r="42" spans="9:30" x14ac:dyDescent="0.25">
       <c r="S42" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" t="s">
         <v>52</v>
       </c>
-      <c r="T42" t="s">
+      <c r="V42" t="s">
         <v>53</v>
       </c>
-      <c r="U42" t="s">
+      <c r="W42" t="s">
         <v>54</v>
       </c>
-      <c r="V42" t="s">
+      <c r="X42" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA42" t="s">
         <v>55</v>
       </c>
-      <c r="W42" t="s">
-        <v>56</v>
-      </c>
-      <c r="X42" t="s">
+      <c r="AB42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD42" t="s">
         <v>53</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="9:30" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M43">
         <f>L41/L40</f>
@@ -6844,10 +6868,10 @@
     </row>
     <row r="44" spans="9:30" x14ac:dyDescent="0.25">
       <c r="O44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S44">
         <v>0.01</v>
@@ -6899,17 +6923,17 @@
     </row>
     <row r="45" spans="9:30" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N45" s="16">
         <f>K36*M43</f>
         <v>31507692.307692308</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S45">
         <f>$N$45*S44</f>
@@ -6962,10 +6986,10 @@
     </row>
     <row r="46" spans="9:30" x14ac:dyDescent="0.25">
       <c r="O46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S46">
         <f>S45*$P$49</f>
@@ -7026,7 +7050,7 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="R47" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V47" s="14">
         <f>S46+T46+U46+V46</f>
@@ -7043,7 +7067,7 @@
     </row>
     <row r="49" spans="12:30" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P49" s="16">
         <f>P47/12*4</f>
@@ -7057,7 +7081,7 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T50">
         <v>5.0000000000000001E-3</v>
@@ -7079,40 +7103,40 @@
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
       <c r="S52" t="s">
+        <v>50</v>
+      </c>
+      <c r="T52" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" t="s">
         <v>52</v>
       </c>
-      <c r="T52" t="s">
+      <c r="V52" t="s">
         <v>53</v>
       </c>
-      <c r="U52" t="s">
+      <c r="W52" t="s">
         <v>54</v>
       </c>
-      <c r="V52" t="s">
+      <c r="X52" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA52" t="s">
         <v>55</v>
       </c>
-      <c r="W52" t="s">
-        <v>56</v>
-      </c>
-      <c r="X52" t="s">
+      <c r="AB52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD52" t="s">
         <v>53</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="53" spans="12:30" x14ac:dyDescent="0.25">
@@ -7122,14 +7146,14 @@
     </row>
     <row r="54" spans="12:30" x14ac:dyDescent="0.25">
       <c r="L54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P54">
         <f>N32-N45</f>
         <v>88492307.692307696</v>
       </c>
       <c r="R54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S54">
         <v>0.01</v>
@@ -7185,7 +7209,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="R55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S55">
         <f>$P$54*S54</f>
@@ -7238,7 +7262,7 @@
     </row>
     <row r="56" spans="12:30" x14ac:dyDescent="0.25">
       <c r="R56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S56">
         <f>S55*$P$55</f>
@@ -7291,7 +7315,7 @@
     </row>
     <row r="57" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R57" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V57" s="14">
         <f>S56+T56+U56+V56</f>
@@ -7308,7 +7332,7 @@
     </row>
     <row r="59" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R59" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V59" s="18">
         <f>SUM(V47,V57)</f>
@@ -7325,13 +7349,13 @@
     </row>
     <row r="61" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N61" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="18">
         <v>750000</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V61" s="19">
         <f>V59/P61</f>
@@ -7348,18 +7372,18 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7373,9 +7397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7387,7 +7409,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7395,21 +7417,21 @@
     </row>
     <row r="2" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>0.05</v>
@@ -7423,7 +7445,7 @@
     </row>
     <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
         <v>0.05</v>
@@ -7437,7 +7459,7 @@
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>0.05</v>
@@ -7451,7 +7473,7 @@
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>0.05</v>
@@ -7465,7 +7487,7 @@
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>0.05</v>
@@ -7479,7 +7501,7 @@
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>0.05</v>
@@ -7497,7 +7519,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>0.05</v>
@@ -7515,7 +7537,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <v>0.05</v>
@@ -7533,7 +7555,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7">
         <v>0.05</v>
@@ -7547,7 +7569,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7">
         <v>0.05</v>
@@ -7561,7 +7583,7 @@
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="15">
         <v>2.5000000000000001E-2</v>
@@ -7575,7 +7597,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7589,7 +7611,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7603,7 +7625,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7617,7 +7639,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7631,7 +7653,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7645,7 +7667,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7659,7 +7681,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7673,7 +7695,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="10">
         <v>2.5000000000000001E-2</v>
@@ -7687,7 +7709,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7">
         <v>0.05</v>
@@ -7701,7 +7723,7 @@
     </row>
     <row r="23" spans="1:4" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="12">
         <v>0.05</v>
@@ -7715,7 +7737,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>0.05</v>
@@ -7729,7 +7751,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7">
         <v>0.05</v>
@@ -7743,7 +7765,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7">
         <v>0.05</v>
@@ -7757,7 +7779,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7">
         <v>0.05</v>
@@ -7771,7 +7793,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="7">
         <v>0.05</v>
@@ -7785,7 +7807,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="7">
         <v>0.05</v>
@@ -7799,7 +7821,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7">
         <v>0.05</v>
@@ -7813,7 +7835,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7">
         <v>0.05</v>
@@ -7827,7 +7849,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="7">
         <v>0.05</v>
@@ -7841,7 +7863,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="7">
         <v>0.05</v>
@@ -7855,7 +7877,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="7">
         <v>0.05</v>
@@ -7869,7 +7891,7 @@
     </row>
     <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>

--- a/BusinessPlanExcel.xlsx
+++ b/BusinessPlanExcel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maksim.superfin\Documents\GIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\GIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="comission plan" sheetId="5" r:id="rId5"/>
     <sheet name="investors" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -568,6 +568,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +587,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -600,7 +601,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -779,7 +779,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39AF-4AC5-9F78-8C8C93F1F675}"/>
             </c:ext>
@@ -797,7 +797,7 @@
         <c:overlap val="-24"/>
         <c:axId val="283290760"/>
         <c:axId val="283292720"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -805,7 +805,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$S$6</c15:sqref>
@@ -861,7 +861,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$T$5:$AE$5</c15:sqref>
@@ -911,7 +911,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'revenue&amp;graphs'!$T$6:$AE$6</c15:sqref>
@@ -960,7 +960,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-39AF-4AC5-9F78-8C8C93F1F675}"/>
                   </c:ext>
@@ -1087,7 +1087,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1155,7 +1154,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1169,7 +1168,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1310,45 +1308,45 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>204800</c:v>
+                  <c:v>259413.33333333328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>614400</c:v>
+                  <c:v>778239.99999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024000.0000000001</c:v>
+                  <c:v>1297066.6666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1433600.0000000002</c:v>
+                  <c:v>1815893.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2252800.0000000005</c:v>
+                  <c:v>2853546.666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3072000.0000000005</c:v>
+                  <c:v>3891200.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3891200.0000000009</c:v>
+                  <c:v>4928853.333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5939200.0000000009</c:v>
+                  <c:v>7522986.666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7987200</c:v>
+                  <c:v>10117119.999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10035200</c:v>
+                  <c:v>12711253.333333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12083200</c:v>
+                  <c:v>15305386.666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14131200</c:v>
+                  <c:v>17899519.999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-09C9-4B90-ADEE-571462810A8F}"/>
             </c:ext>
@@ -1520,7 +1518,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1534,7 +1532,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1713,7 +1710,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51F9-4B50-A16F-6CA11207665B}"/>
             </c:ext>
@@ -1885,7 +1882,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1899,7 +1896,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2013,18 +2009,18 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3679440</c:v>
+                  <c:v>4553253.333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16880800.000000004</c:v>
+                  <c:v>20922186.666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49528640</c:v>
+                  <c:v>61325119.999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-274F-4DE3-89E1-383BFB4885F7}"/>
             </c:ext>
@@ -2196,7 +2192,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2210,7 +2206,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2399,7 +2394,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CD53-465D-8CA8-784AA303CC8B}"/>
             </c:ext>
@@ -5449,16 +5444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>567578</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101413</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5479,15 +5474,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>143435</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>178174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>105335</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>172571</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>63874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5982,7 +5977,7 @@
       </c>
       <c r="F10" s="17">
         <f>'revenue&amp;graphs'!V59</f>
-        <v>3679440</v>
+        <v>4660624</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -5990,7 +5985,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17">
         <f>'revenue&amp;graphs'!Z59</f>
-        <v>16880800.000000004</v>
+        <v>21382346.666666668</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -5998,7 +5993,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17">
         <f>'revenue&amp;graphs'!AD59</f>
-        <v>49528640</v>
+        <v>62736277.333333321</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -6216,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AH67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6229,7 +6224,7 @@
     <col min="19" max="19" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" customWidth="1"/>
     <col min="30" max="30" width="14" customWidth="1"/>
     <col min="31" max="31" width="14.42578125" customWidth="1"/>
@@ -6397,67 +6392,67 @@
       </c>
       <c r="AH7" s="17">
         <f>W14</f>
-        <v>3679440</v>
+        <v>4553253.333333333</v>
       </c>
     </row>
     <row r="8" spans="11:34" x14ac:dyDescent="0.25">
       <c r="S8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="33">
         <f>P49</f>
-        <v>0.65</v>
-      </c>
-      <c r="U8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="U8" s="33">
         <f>T8</f>
-        <v>0.65</v>
-      </c>
-      <c r="V8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="V8" s="33">
         <f t="shared" ref="V8:AE8" si="7">U8</f>
-        <v>0.65</v>
-      </c>
-      <c r="W8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="W8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="X8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="X8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="Y8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="Y8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="Z8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="Z8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="AA8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="AA8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="AB8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="AB8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="AC8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="AC8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="AD8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="AD8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
-      </c>
-      <c r="AE8" s="20">
+        <v>0.82333333333333325</v>
+      </c>
+      <c r="AE8" s="33">
         <f t="shared" si="7"/>
-        <v>0.65</v>
+        <v>0.82333333333333325</v>
       </c>
       <c r="AG8" t="s">
         <v>90</v>
       </c>
       <c r="AH8" s="17">
         <f>AA14</f>
-        <v>16880800.000000004</v>
+        <v>20922186.666666668</v>
       </c>
     </row>
     <row r="9" spans="11:34" x14ac:dyDescent="0.25">
@@ -6466,58 +6461,58 @@
       </c>
       <c r="T9" s="23">
         <f>T8*T7</f>
-        <v>204800</v>
+        <v>259413.33333333328</v>
       </c>
       <c r="U9" s="23">
         <f t="shared" ref="U9:AE9" si="8">U8*U7</f>
-        <v>614400</v>
+        <v>778239.99999999988</v>
       </c>
       <c r="V9" s="23">
         <f t="shared" si="8"/>
-        <v>1024000.0000000001</v>
+        <v>1297066.6666666665</v>
       </c>
       <c r="W9" s="23">
         <f t="shared" si="8"/>
-        <v>1433600.0000000002</v>
+        <v>1815893.3333333335</v>
       </c>
       <c r="X9" s="23">
         <f t="shared" si="8"/>
-        <v>2252800.0000000005</v>
+        <v>2853546.666666667</v>
       </c>
       <c r="Y9" s="23">
         <f t="shared" si="8"/>
-        <v>3072000.0000000005</v>
+        <v>3891200.0000000005</v>
       </c>
       <c r="Z9" s="23">
         <f t="shared" si="8"/>
-        <v>3891200.0000000009</v>
+        <v>4928853.333333334</v>
       </c>
       <c r="AA9" s="23">
         <f t="shared" si="8"/>
-        <v>5939200.0000000009</v>
+        <v>7522986.666666666</v>
       </c>
       <c r="AB9" s="23">
         <f t="shared" si="8"/>
-        <v>7987200</v>
+        <v>10117119.999999998</v>
       </c>
       <c r="AC9" s="23">
         <f t="shared" si="8"/>
-        <v>10035200</v>
+        <v>12711253.333333332</v>
       </c>
       <c r="AD9" s="23">
         <f t="shared" si="8"/>
-        <v>12083200</v>
+        <v>15305386.666666664</v>
       </c>
       <c r="AE9" s="23">
         <f t="shared" si="8"/>
-        <v>14131200</v>
+        <v>17899519.999999996</v>
       </c>
       <c r="AG9" t="s">
         <v>91</v>
       </c>
       <c r="AH9" s="17">
         <f>AE14</f>
-        <v>49528640</v>
+        <v>61325119.999999985</v>
       </c>
     </row>
     <row r="10" spans="11:34" x14ac:dyDescent="0.25">
@@ -6573,7 +6568,7 @@
       </c>
       <c r="AH10" s="17">
         <f>SUM(AH7:AH9)</f>
-        <v>70088880</v>
+        <v>86800559.999999985</v>
       </c>
     </row>
     <row r="11" spans="11:34" x14ac:dyDescent="0.25">
@@ -6636,51 +6631,51 @@
       </c>
       <c r="T12" s="23">
         <f>T8*0.1</f>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="U12" s="23">
         <f t="shared" ref="U12:AE12" si="15">U8*0.1</f>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="V12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="W12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="X12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="Y12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="Z12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AA12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AB12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AC12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AD12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AE12" s="23">
         <f t="shared" si="15"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="AG12" s="30" t="s">
         <v>93</v>
@@ -6731,7 +6726,7 @@
       </c>
       <c r="AH13">
         <f>((AH8-AH7)/AH7+(AH9-AH8)/AH8)/2</f>
-        <v>2.7609470758749706</v>
+        <v>2.7630509961522609</v>
       </c>
     </row>
     <row r="14" spans="11:34" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6743,21 +6738,21 @@
       <c r="V14" s="25"/>
       <c r="W14" s="26">
         <f>SUM(T9:W9,T13:W13)</f>
-        <v>3679440</v>
+        <v>4553253.333333333</v>
       </c>
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="28">
         <f>SUM(X9:AA9,X13:AA13)</f>
-        <v>16880800.000000004</v>
+        <v>20922186.666666668</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="28">
         <f>SUM(AB9:AE9,AB13:AE13)</f>
-        <v>49528640</v>
+        <v>61325119.999999985</v>
       </c>
     </row>
     <row r="15" spans="11:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -6993,51 +6988,51 @@
       </c>
       <c r="S46">
         <f>S45*$P$49</f>
-        <v>204800</v>
+        <v>259413.33333333328</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46:AC46" si="19">T45*$P$49</f>
-        <v>614400</v>
+        <v>778239.99999999988</v>
       </c>
       <c r="U46">
         <f t="shared" si="19"/>
-        <v>1024000.0000000001</v>
+        <v>1297066.6666666665</v>
       </c>
       <c r="V46">
         <f t="shared" si="19"/>
-        <v>1433600.0000000002</v>
+        <v>1815893.3333333335</v>
       </c>
       <c r="W46">
         <f t="shared" si="19"/>
-        <v>2252800.0000000005</v>
+        <v>2853546.666666667</v>
       </c>
       <c r="X46">
         <f t="shared" si="19"/>
-        <v>3072000.0000000005</v>
+        <v>3891200.0000000005</v>
       </c>
       <c r="Y46">
         <f t="shared" si="19"/>
-        <v>3891200.0000000009</v>
+        <v>4928853.333333334</v>
       </c>
       <c r="Z46">
         <f t="shared" si="19"/>
-        <v>5939200.0000000009</v>
+        <v>7522986.666666666</v>
       </c>
       <c r="AA46">
         <f t="shared" si="19"/>
-        <v>7987200</v>
+        <v>10117119.999999998</v>
       </c>
       <c r="AB46">
         <f t="shared" si="19"/>
-        <v>10035200</v>
+        <v>12711253.333333332</v>
       </c>
       <c r="AC46">
         <f t="shared" si="19"/>
-        <v>12083200</v>
+        <v>15305386.666666664</v>
       </c>
       <c r="AD46">
         <f>AD45*$P$49</f>
-        <v>14131200</v>
+        <v>17899519.999999996</v>
       </c>
     </row>
     <row r="47" spans="9:30" x14ac:dyDescent="0.25">
@@ -7046,23 +7041,23 @@
         <v>65</v>
       </c>
       <c r="P47">
-        <f>O47*0.5*0.6*0.25*0.4</f>
-        <v>1.9500000000000002</v>
+        <f>O47*0.038</f>
+        <v>2.4699999999999998</v>
       </c>
       <c r="R47" s="14" t="s">
         <v>61</v>
       </c>
       <c r="V47" s="14">
         <f>S46+T46+U46+V46</f>
-        <v>3276800</v>
+        <v>4150613.333333333</v>
       </c>
       <c r="Z47" s="14">
         <f>W46+X46+Y46+Z46</f>
-        <v>15155200.000000004</v>
+        <v>19196586.666666668</v>
       </c>
       <c r="AD47" s="14">
         <f>AA46+AB46+AC46+AD46</f>
-        <v>44236800</v>
+        <v>56033279.999999985</v>
       </c>
     </row>
     <row r="49" spans="12:30" x14ac:dyDescent="0.25">
@@ -7071,7 +7066,7 @@
       </c>
       <c r="P49" s="16">
         <f>P47/12*4</f>
-        <v>0.65</v>
+        <v>0.82333333333333325</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
@@ -7206,7 +7201,7 @@
     <row r="55" spans="12:30" x14ac:dyDescent="0.25">
       <c r="P55">
         <f>P49*0.1</f>
-        <v>6.5000000000000002E-2</v>
+        <v>8.2333333333333328E-2</v>
       </c>
       <c r="R55" t="s">
         <v>66</v>
@@ -7266,51 +7261,51 @@
       </c>
       <c r="S56">
         <f>S55*$P$55</f>
-        <v>57520.000000000007</v>
+        <v>72858.666666666672</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56:AC56" si="24">T55*$P$55</f>
-        <v>86280.000000000015</v>
+        <v>109288</v>
       </c>
       <c r="U56">
         <f t="shared" si="24"/>
-        <v>115040.00000000001</v>
+        <v>145717.33333333334</v>
       </c>
       <c r="V56">
         <f t="shared" si="24"/>
-        <v>143800.00000000003</v>
+        <v>182146.66666666666</v>
       </c>
       <c r="W56">
         <f t="shared" si="24"/>
-        <v>258840</v>
+        <v>327863.99999999994</v>
       </c>
       <c r="X56">
         <f t="shared" si="24"/>
-        <v>373880</v>
+        <v>473581.33333333331</v>
       </c>
       <c r="Y56">
         <f t="shared" si="24"/>
-        <v>488920.00000000006</v>
+        <v>619298.66666666674</v>
       </c>
       <c r="Z56">
         <f t="shared" si="24"/>
-        <v>603960.00000000012</v>
+        <v>765016.00000000012</v>
       </c>
       <c r="AA56">
         <f t="shared" si="24"/>
-        <v>891560.00000000023</v>
+        <v>1129309.3333333335</v>
       </c>
       <c r="AB56">
         <f t="shared" si="24"/>
-        <v>1179160.0000000002</v>
+        <v>1493602.6666666667</v>
       </c>
       <c r="AC56">
         <f t="shared" si="24"/>
-        <v>1466760.0000000002</v>
+        <v>1857896</v>
       </c>
       <c r="AD56">
         <f>AD55*$P$55</f>
-        <v>1754360.0000000002</v>
+        <v>2222189.3333333335</v>
       </c>
     </row>
     <row r="57" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7319,15 +7314,15 @@
       </c>
       <c r="V57" s="14">
         <f>S56+T56+U56+V56</f>
-        <v>402640.00000000012</v>
+        <v>510010.66666666663</v>
       </c>
       <c r="Z57" s="14">
         <f>SUM(W56:Z56)</f>
-        <v>1725600</v>
+        <v>2185760</v>
       </c>
       <c r="AD57" s="14">
         <f>SUM(AA56:AD56)</f>
-        <v>5291840.0000000009</v>
+        <v>6702997.333333334</v>
       </c>
     </row>
     <row r="59" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7336,15 +7331,15 @@
       </c>
       <c r="V59" s="18">
         <f>SUM(V47,V57)</f>
-        <v>3679440</v>
+        <v>4660624</v>
       </c>
       <c r="Z59" s="18">
         <f>SUM(Z47,Z57)</f>
-        <v>16880800.000000004</v>
+        <v>21382346.666666668</v>
       </c>
       <c r="AD59" s="18">
         <f>SUM(AD47,AD57)</f>
-        <v>49528640</v>
+        <v>62736277.333333321</v>
       </c>
     </row>
     <row r="61" spans="12:30" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7359,15 +7354,15 @@
       </c>
       <c r="V61" s="19">
         <f>V59/P61</f>
-        <v>4.9059200000000001</v>
+        <v>6.2141653333333338</v>
       </c>
       <c r="Z61" s="19">
         <f>Z59/P61</f>
-        <v>22.507733333333338</v>
+        <v>28.509795555555556</v>
       </c>
       <c r="AD61" s="19">
         <f>AD59/P61</f>
-        <v>66.038186666666661</v>
+        <v>83.648369777777759</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
